--- a/OpenSTA_report_power/stats_final.xlsx
+++ b/OpenSTA_report_power/stats_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youssef/Desktop/EDA/Dynamic_Power_Clock_Gating/OpenSTA_report_power/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C69B6BD-E217-E842-A389-0470F8610C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32125EA-247F-174E-999C-4B6400CD864E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14180" xr2:uid="{890AF795-D98C-7D47-A48F-86EB7D607F33}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{890AF795-D98C-7D47-A48F-86EB7D607F33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="82">
   <si>
     <t>module</t>
   </si>
@@ -706,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E9F32-DA16-8340-AAF9-07CE3C189777}">
-  <dimension ref="B2:R228"/>
+  <dimension ref="B2:R253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E205" sqref="E205"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="57" workbookViewId="0">
+      <selection activeCell="H234" sqref="H234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7231,31 +7231,31 @@
       <c r="B214" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="2">
         <v>1.8662150000000001E-3</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="2">
         <v>4.7434984E-4</v>
       </c>
       <c r="E214" s="2">
         <v>4.4899999999999998E-8</v>
       </c>
-      <c r="F214">
+      <c r="F214" s="2">
         <v>2.34347299999999E-3</v>
       </c>
-      <c r="G214">
+      <c r="G214" s="2">
         <v>1.38321699999999E-3</v>
       </c>
-      <c r="H214">
+      <c r="H214" s="2">
         <v>3.1997425999999901E-4</v>
       </c>
       <c r="I214" s="2">
         <v>4.5900000000000001E-8</v>
       </c>
-      <c r="J214">
+      <c r="J214" s="2">
         <v>1.7080590000000001E-3</v>
       </c>
-      <c r="K214">
+      <c r="K214" s="2">
         <v>6.3541399999999897E-4</v>
       </c>
       <c r="L214" s="3">
@@ -7266,31 +7266,31 @@
       <c r="B215" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="2">
         <v>5.40172999999999E-3</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="2">
         <v>1.4885040000000001E-3</v>
       </c>
       <c r="E215" s="2">
         <v>4.3499999999999999E-8</v>
       </c>
-      <c r="F215">
+      <c r="F215" s="2">
         <v>6.8951399999999897E-3</v>
       </c>
-      <c r="G215">
+      <c r="G215" s="2">
         <v>3.8183700000000002E-3</v>
       </c>
-      <c r="H215">
+      <c r="H215" s="2">
         <v>8.2854965000000004E-4</v>
       </c>
       <c r="I215" s="2">
         <v>4.21E-8</v>
       </c>
-      <c r="J215">
+      <c r="J215" s="2">
         <v>4.6589700000000001E-3</v>
       </c>
-      <c r="K215">
+      <c r="K215" s="2">
         <v>2.23616999999999E-3</v>
       </c>
       <c r="L215" s="3">
@@ -7301,31 +7301,31 @@
       <c r="B216" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="2">
         <v>2.1408009999999899E-3</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="2">
         <v>1.9811562E-3</v>
       </c>
       <c r="E216" s="2">
         <v>1.23E-7</v>
       </c>
-      <c r="F216">
+      <c r="F216" s="2">
         <v>4.1244749999999998E-3</v>
       </c>
-      <c r="G216">
+      <c r="G216" s="2">
         <v>3.5742739999999901E-3</v>
       </c>
-      <c r="H216">
+      <c r="H216" s="2">
         <v>7.1965229999999998E-4</v>
       </c>
       <c r="I216" s="2">
         <v>1.3300000000000001E-7</v>
       </c>
-      <c r="J216">
+      <c r="J216" s="2">
         <v>4.2950149999999897E-3</v>
       </c>
-      <c r="K216">
+      <c r="K216" s="2">
         <v>-1.70539999999999E-4</v>
       </c>
       <c r="L216" s="3">
@@ -7336,31 +7336,31 @@
       <c r="B217" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="2">
         <v>9.1401669999999907E-3</v>
       </c>
-      <c r="D217">
+      <c r="D217" s="2">
         <v>9.9558645999999994E-3</v>
       </c>
       <c r="E217" s="2">
         <v>7.4600000000000006E-8</v>
       </c>
-      <c r="F217">
+      <c r="F217" s="2">
         <v>1.8847429999999998E-2</v>
       </c>
-      <c r="G217">
+      <c r="G217" s="2">
         <v>7.4500349999999903E-3</v>
       </c>
-      <c r="H217">
+      <c r="H217" s="2">
         <v>2.14066280999999E-3</v>
       </c>
       <c r="I217" s="2">
         <v>6.9100000000000003E-8</v>
       </c>
-      <c r="J217">
+      <c r="J217" s="2">
         <v>9.6023700000000007E-3</v>
       </c>
-      <c r="K217">
+      <c r="K217" s="2">
         <v>9.2450599999999994E-3</v>
       </c>
       <c r="L217" s="3">
@@ -7371,31 +7371,31 @@
       <c r="B218" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="2">
         <v>5.3876999999999897E-2</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="2">
         <v>9.27214899999999E-3</v>
       </c>
       <c r="E218" s="2">
         <v>4.3800000000000002E-8</v>
       </c>
-      <c r="F218">
+      <c r="F218" s="2">
         <v>6.3284000000000007E-2</v>
       </c>
-      <c r="G218">
+      <c r="G218" s="2">
         <v>4.2198199999913401E-2</v>
       </c>
-      <c r="H218">
+      <c r="H218" s="2">
         <v>5.9628759999999998E-3</v>
       </c>
       <c r="I218" s="2">
         <v>3.5800000000000003E-8</v>
       </c>
-      <c r="J218">
+      <c r="J218" s="2">
         <v>4.83651999999999E-2</v>
       </c>
-      <c r="K218">
+      <c r="K218" s="2">
         <v>1.4918799999999999E-2</v>
       </c>
       <c r="L218" s="3">
@@ -7406,31 +7406,31 @@
       <c r="B219" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="2">
         <v>1.1401110000000001E-2</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="2">
         <v>2.2069541999999902E-3</v>
       </c>
       <c r="E219" s="2">
         <v>3.7599999999999999E-8</v>
       </c>
-      <c r="F219">
+      <c r="F219" s="2">
         <v>1.36105599999999E-2</v>
       </c>
-      <c r="G219">
+      <c r="G219" s="2">
         <v>9.3266700000000004E-3</v>
       </c>
-      <c r="H219">
+      <c r="H219" s="2">
         <v>1.2374297299999901E-3</v>
       </c>
       <c r="I219" s="2">
         <v>3.6400000000000002E-8</v>
       </c>
-      <c r="J219">
+      <c r="J219" s="2">
         <v>1.056435E-2</v>
       </c>
-      <c r="K219">
+      <c r="K219" s="2">
         <v>3.0462099999999902E-3</v>
       </c>
       <c r="L219" s="3">
@@ -7441,31 +7441,31 @@
       <c r="B220" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="2">
         <v>0.19211139999999899</v>
       </c>
-      <c r="D220">
+      <c r="D220" s="2">
         <v>3.5425527999999998E-2</v>
       </c>
       <c r="E220" s="2">
         <v>4.5300000000000002E-8</v>
       </c>
-      <c r="F220">
+      <c r="F220" s="2">
         <v>0.22724820000000001</v>
       </c>
-      <c r="G220">
+      <c r="G220" s="2">
         <v>0.13510949999999999</v>
       </c>
-      <c r="H220">
+      <c r="H220" s="2">
         <v>1.7906894E-2</v>
       </c>
       <c r="I220" s="2">
         <v>3.1200000000000001E-8</v>
       </c>
-      <c r="J220">
+      <c r="J220" s="2">
         <v>0.15265970000000001</v>
       </c>
-      <c r="K220">
+      <c r="K220" s="2">
         <v>7.4588500000000002E-2</v>
       </c>
       <c r="L220" s="3">
@@ -7476,31 +7476,31 @@
       <c r="B221" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="2">
         <v>2.2187729999999999E-2</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="2">
         <v>1.15145093E-2</v>
       </c>
       <c r="E221" s="2">
         <v>2.7000000000000001E-7</v>
       </c>
-      <c r="F221">
+      <c r="F221" s="2">
         <v>3.3759819999999899E-2</v>
       </c>
-      <c r="G221">
+      <c r="G221" s="2">
         <v>1.6291969999999999E-2</v>
       </c>
-      <c r="H221">
+      <c r="H221" s="2">
         <v>6.1547021399999896E-3</v>
       </c>
       <c r="I221" s="2">
         <v>2.6800000000000002E-7</v>
       </c>
-      <c r="J221">
+      <c r="J221" s="2">
         <v>2.2506000000000002E-2</v>
       </c>
-      <c r="K221">
+      <c r="K221" s="2">
         <v>1.1253819999999901E-2</v>
       </c>
       <c r="L221" s="3">
@@ -7511,31 +7511,31 @@
       <c r="B222" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="2">
         <v>2.31912629999999E-2</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="2">
         <v>1.2056648099999999E-2</v>
       </c>
       <c r="E222" s="2">
         <v>2.1E-7</v>
       </c>
-      <c r="F222">
+      <c r="F222" s="2">
         <v>3.44922199999999E-2</v>
       </c>
-      <c r="G222">
+      <c r="G222" s="2">
         <v>1.8463332999999998E-2</v>
       </c>
-      <c r="H222">
+      <c r="H222" s="2">
         <v>5.2551573299999899E-3</v>
       </c>
       <c r="I222" s="2">
         <v>2.01999999999999E-7</v>
       </c>
-      <c r="J222">
+      <c r="J222" s="2">
         <v>2.371053E-2</v>
       </c>
-      <c r="K222">
+      <c r="K222" s="2">
         <v>1.0781689999999899E-2</v>
       </c>
       <c r="L222" s="3">
@@ -7546,31 +7546,31 @@
       <c r="B223" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="2">
         <v>5.947941E-3</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="2">
         <v>1.7640519000000001E-3</v>
       </c>
       <c r="E223" s="2">
         <v>7.4700000000000001E-8</v>
       </c>
-      <c r="F223">
+      <c r="F223" s="2">
         <v>7.6849700000000002E-3</v>
       </c>
-      <c r="G223">
+      <c r="G223" s="2">
         <v>4.4376999999999897E-3</v>
       </c>
-      <c r="H223">
+      <c r="H223" s="2">
         <v>8.8304374999999995E-4</v>
       </c>
       <c r="I223" s="2">
         <v>6.4799999999999998E-8</v>
       </c>
-      <c r="J223">
+      <c r="J223" s="2">
         <v>5.3225900000000003E-3</v>
       </c>
-      <c r="K223">
+      <c r="K223" s="2">
         <v>2.3623799999999899E-3</v>
       </c>
       <c r="L223" s="3">
@@ -7581,31 +7581,31 @@
       <c r="B224" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="2">
         <v>4.6281599999999897E-3</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="2">
         <v>1.7988010999999901E-3</v>
       </c>
       <c r="E224" s="2">
         <v>4.2400000000000002E-8</v>
       </c>
-      <c r="F224">
+      <c r="F224" s="2">
         <v>6.4256599999999902E-3</v>
       </c>
-      <c r="G224">
+      <c r="G224" s="2">
         <v>3.4394391999999999E-3</v>
       </c>
-      <c r="H224">
+      <c r="H224" s="2">
         <v>7.5553459000000001E-4</v>
       </c>
       <c r="I224" s="2">
         <v>3.9400000000000002E-8</v>
       </c>
-      <c r="J224">
+      <c r="J224" s="2">
         <v>4.2091717999999997E-3</v>
       </c>
-      <c r="K224">
+      <c r="K224" s="2">
         <v>2.2164881999999901E-3</v>
       </c>
       <c r="L224" s="3">
@@ -7616,31 +7616,31 @@
       <c r="B225" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="2">
         <v>1.17472499999999E-3</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="2">
         <v>5.9627244999999897E-4</v>
       </c>
       <c r="E225" s="2">
         <v>2.9999999999999997E-8</v>
       </c>
-      <c r="F225">
+      <c r="F225" s="2">
         <v>1.7744519999999999E-3</v>
       </c>
-      <c r="G225">
+      <c r="G225" s="2">
         <v>9.0013899999999902E-4</v>
       </c>
-      <c r="H225">
+      <c r="H225" s="2">
         <v>2.01560389999999E-4</v>
       </c>
       <c r="I225" s="2">
         <v>2.8600000000000001E-8</v>
       </c>
-      <c r="J225">
+      <c r="J225" s="2">
         <v>1.099685E-3</v>
       </c>
-      <c r="K225">
+      <c r="K225" s="2">
         <v>6.7476700000000005E-4</v>
       </c>
       <c r="L225" s="3">
@@ -7651,31 +7651,31 @@
       <c r="B226" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="2">
         <v>5.6950380000000002E-2</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="2">
         <v>2.7298995E-2</v>
       </c>
       <c r="E226" s="2">
         <v>4.51E-7</v>
       </c>
-      <c r="F226">
+      <c r="F226" s="2">
         <v>8.4253079999999897E-2</v>
       </c>
-      <c r="G226">
+      <c r="G226" s="2">
         <v>4.3184640000000003E-2</v>
       </c>
-      <c r="H226">
+      <c r="H226" s="2">
         <v>1.28698030999999E-2</v>
       </c>
       <c r="I226" s="2">
         <v>4.4400000000000001E-7</v>
       </c>
-      <c r="J226">
+      <c r="J226" s="2">
         <v>5.6124169999999897E-2</v>
       </c>
-      <c r="K226">
+      <c r="K226" s="2">
         <v>2.8128909999999899E-2</v>
       </c>
       <c r="L226" s="3">
@@ -7686,31 +7686,31 @@
       <c r="B227" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="2">
         <v>6.8478499999999999E-3</v>
       </c>
-      <c r="D227">
+      <c r="D227" s="2">
         <v>9.8902899999999891E-4</v>
       </c>
       <c r="E227" s="2">
         <v>1.7599999999999999E-8</v>
       </c>
-      <c r="F227">
+      <c r="F227" s="2">
         <v>7.8429799999999994E-3</v>
       </c>
-      <c r="G227">
+      <c r="G227" s="2">
         <v>4.7108799999323603E-3</v>
       </c>
-      <c r="H227">
+      <c r="H227" s="2">
         <v>6.7777899998977802E-4</v>
       </c>
       <c r="I227" s="2">
         <v>1.4E-8</v>
       </c>
-      <c r="J227">
+      <c r="J227" s="2">
         <v>5.3910499999999901E-3</v>
       </c>
-      <c r="K227">
+      <c r="K227" s="2">
         <v>2.4519300000000002E-3</v>
       </c>
       <c r="L227" s="3">
@@ -7721,34 +7721,605 @@
       <c r="B228" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="2">
         <v>2.737475E-2</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="2">
         <v>4.0064004999999896E-3</v>
       </c>
       <c r="E228" s="2">
         <v>7.0000000000000005E-8</v>
       </c>
-      <c r="F228">
+      <c r="F228" s="2">
         <v>3.1406629999999901E-2</v>
       </c>
-      <c r="G228">
+      <c r="G228" s="2">
         <v>1.8456479999864599E-2</v>
       </c>
-      <c r="H228">
+      <c r="H228" s="2">
         <v>2.76381389997889E-3</v>
       </c>
       <c r="I228" s="2">
         <v>5.3099999999999999E-8</v>
       </c>
-      <c r="J228">
+      <c r="J228" s="2">
         <v>2.1234929999999999E-2</v>
       </c>
-      <c r="K228">
+      <c r="K228" s="2">
         <v>1.01716999999999E-2</v>
       </c>
       <c r="L228" s="3">
+        <v>0.323871106196366</v>
+      </c>
+    </row>
+    <row r="229" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L229" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="230" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L230" s="3">
+        <f>AVERAGE(L214:L228)</f>
+        <v>0.29875423309248589</v>
+      </c>
+    </row>
+    <row r="238" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B238" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1</v>
+      </c>
+      <c r="D238" t="s">
+        <v>2</v>
+      </c>
+      <c r="E238" t="s">
+        <v>3</v>
+      </c>
+      <c r="F238" t="s">
+        <v>4</v>
+      </c>
+      <c r="G238" t="s">
+        <v>5</v>
+      </c>
+      <c r="H238" t="s">
+        <v>6</v>
+      </c>
+      <c r="I238" t="s">
+        <v>7</v>
+      </c>
+      <c r="J238" t="s">
+        <v>8</v>
+      </c>
+      <c r="K238" t="s">
+        <v>29</v>
+      </c>
+      <c r="L238" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B239" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C239">
+        <v>1.8662150000000001E-3</v>
+      </c>
+      <c r="D239">
+        <v>4.7434984E-4</v>
+      </c>
+      <c r="E239" s="2">
+        <v>4.4899999999999998E-8</v>
+      </c>
+      <c r="F239">
+        <v>2.34347299999999E-3</v>
+      </c>
+      <c r="G239">
+        <v>1.38321699999999E-3</v>
+      </c>
+      <c r="H239">
+        <v>3.1997425999999901E-4</v>
+      </c>
+      <c r="I239" s="2">
+        <v>4.5900000000000001E-8</v>
+      </c>
+      <c r="J239">
+        <v>1.7080590000000001E-3</v>
+      </c>
+      <c r="K239">
+        <v>6.3541399999999897E-4</v>
+      </c>
+      <c r="L239" s="3">
+        <v>0.27114201870471699</v>
+      </c>
+    </row>
+    <row r="240" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B240" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C240">
+        <v>5.40172999999999E-3</v>
+      </c>
+      <c r="D240">
+        <v>1.4885040000000001E-3</v>
+      </c>
+      <c r="E240" s="2">
+        <v>4.3499999999999999E-8</v>
+      </c>
+      <c r="F240">
+        <v>6.8951399999999897E-3</v>
+      </c>
+      <c r="G240">
+        <v>3.8183700000000002E-3</v>
+      </c>
+      <c r="H240">
+        <v>8.2854965000000004E-4</v>
+      </c>
+      <c r="I240" s="2">
+        <v>4.21E-8</v>
+      </c>
+      <c r="J240">
+        <v>4.6589700000000001E-3</v>
+      </c>
+      <c r="K240">
+        <v>2.23616999999999E-3</v>
+      </c>
+      <c r="L240" s="3">
+        <v>0.32431103646916498</v>
+      </c>
+    </row>
+    <row r="241" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B241" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C241">
+        <v>2.1408009999999899E-3</v>
+      </c>
+      <c r="D241">
+        <v>1.9811562E-3</v>
+      </c>
+      <c r="E241" s="2">
+        <v>1.23E-7</v>
+      </c>
+      <c r="F241">
+        <v>4.1244749999999998E-3</v>
+      </c>
+      <c r="G241">
+        <v>3.5742739999999901E-3</v>
+      </c>
+      <c r="H241">
+        <v>7.1965229999999998E-4</v>
+      </c>
+      <c r="I241" s="2">
+        <v>1.3300000000000001E-7</v>
+      </c>
+      <c r="J241">
+        <v>4.2950149999999897E-3</v>
+      </c>
+      <c r="K241">
+        <v>-1.70539999999999E-4</v>
+      </c>
+      <c r="L241" s="3">
+        <v>-4.1348292813024601E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B242" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242">
+        <v>9.1401669999999907E-3</v>
+      </c>
+      <c r="D242">
+        <v>9.9558645999999994E-3</v>
+      </c>
+      <c r="E242" s="2">
+        <v>7.4600000000000006E-8</v>
+      </c>
+      <c r="F242">
+        <v>1.8847429999999998E-2</v>
+      </c>
+      <c r="G242">
+        <v>7.4500349999999903E-3</v>
+      </c>
+      <c r="H242">
+        <v>2.14066280999999E-3</v>
+      </c>
+      <c r="I242" s="2">
+        <v>6.9100000000000003E-8</v>
+      </c>
+      <c r="J242">
+        <v>9.6023700000000007E-3</v>
+      </c>
+      <c r="K242">
+        <v>9.2450599999999994E-3</v>
+      </c>
+      <c r="L242" s="3">
+        <v>0.49052098880324702</v>
+      </c>
+    </row>
+    <row r="243" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B243" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C243">
+        <v>5.3876999999999897E-2</v>
+      </c>
+      <c r="D243">
+        <v>9.27214899999999E-3</v>
+      </c>
+      <c r="E243" s="2">
+        <v>4.3800000000000002E-8</v>
+      </c>
+      <c r="F243">
+        <v>6.3284000000000007E-2</v>
+      </c>
+      <c r="G243">
+        <v>4.2198199999913401E-2</v>
+      </c>
+      <c r="H243">
+        <v>5.9628759999999998E-3</v>
+      </c>
+      <c r="I243" s="2">
+        <v>3.5800000000000003E-8</v>
+      </c>
+      <c r="J243">
+        <v>4.83651999999999E-2</v>
+      </c>
+      <c r="K243">
+        <v>1.4918799999999999E-2</v>
+      </c>
+      <c r="L243" s="3">
+        <v>0.23574363188167599</v>
+      </c>
+    </row>
+    <row r="244" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B244" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C244">
+        <v>1.1401110000000001E-2</v>
+      </c>
+      <c r="D244">
+        <v>2.2069541999999902E-3</v>
+      </c>
+      <c r="E244" s="2">
+        <v>3.7599999999999999E-8</v>
+      </c>
+      <c r="F244">
+        <v>1.36105599999999E-2</v>
+      </c>
+      <c r="G244">
+        <v>9.3266700000000004E-3</v>
+      </c>
+      <c r="H244">
+        <v>1.2374297299999901E-3</v>
+      </c>
+      <c r="I244" s="2">
+        <v>3.6400000000000002E-8</v>
+      </c>
+      <c r="J244">
+        <v>1.056435E-2</v>
+      </c>
+      <c r="K244">
+        <v>3.0462099999999902E-3</v>
+      </c>
+      <c r="L244" s="3">
+        <v>0.223812245785625</v>
+      </c>
+    </row>
+    <row r="245" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B245" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C245">
+        <v>0.19211139999999899</v>
+      </c>
+      <c r="D245">
+        <v>3.5425527999999998E-2</v>
+      </c>
+      <c r="E245" s="2">
+        <v>4.5300000000000002E-8</v>
+      </c>
+      <c r="F245">
+        <v>0.22724820000000001</v>
+      </c>
+      <c r="G245">
+        <v>0.13510949999999999</v>
+      </c>
+      <c r="H245">
+        <v>1.7906894E-2</v>
+      </c>
+      <c r="I245" s="2">
+        <v>3.1200000000000001E-8</v>
+      </c>
+      <c r="J245">
+        <v>0.15265970000000001</v>
+      </c>
+      <c r="K245">
+        <v>7.4588500000000002E-2</v>
+      </c>
+      <c r="L245" s="3">
+        <v>0.32822482202279202</v>
+      </c>
+    </row>
+    <row r="246" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B246" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C246">
+        <v>2.2187729999999999E-2</v>
+      </c>
+      <c r="D246">
+        <v>1.15145093E-2</v>
+      </c>
+      <c r="E246" s="2">
+        <v>2.7000000000000001E-7</v>
+      </c>
+      <c r="F246">
+        <v>3.3759819999999899E-2</v>
+      </c>
+      <c r="G246">
+        <v>1.6291969999999999E-2</v>
+      </c>
+      <c r="H246">
+        <v>6.1547021399999896E-3</v>
+      </c>
+      <c r="I246" s="2">
+        <v>2.6800000000000002E-7</v>
+      </c>
+      <c r="J246">
+        <v>2.2506000000000002E-2</v>
+      </c>
+      <c r="K246">
+        <v>1.1253819999999901E-2</v>
+      </c>
+      <c r="L246" s="3">
+        <v>0.33334952615268598</v>
+      </c>
+    </row>
+    <row r="247" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B247" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C247">
+        <v>2.31912629999999E-2</v>
+      </c>
+      <c r="D247">
+        <v>1.2056648099999999E-2</v>
+      </c>
+      <c r="E247" s="2">
+        <v>2.1E-7</v>
+      </c>
+      <c r="F247">
+        <v>3.44922199999999E-2</v>
+      </c>
+      <c r="G247">
+        <v>1.8463332999999998E-2</v>
+      </c>
+      <c r="H247">
+        <v>5.2551573299999899E-3</v>
+      </c>
+      <c r="I247" s="2">
+        <v>2.01999999999999E-7</v>
+      </c>
+      <c r="J247">
+        <v>2.371053E-2</v>
+      </c>
+      <c r="K247">
+        <v>1.0781689999999899E-2</v>
+      </c>
+      <c r="L247" s="3">
+        <v>0.31258324340967297</v>
+      </c>
+    </row>
+    <row r="248" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B248" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C248">
+        <v>5.947941E-3</v>
+      </c>
+      <c r="D248">
+        <v>1.7640519000000001E-3</v>
+      </c>
+      <c r="E248" s="2">
+        <v>7.4700000000000001E-8</v>
+      </c>
+      <c r="F248">
+        <v>7.6849700000000002E-3</v>
+      </c>
+      <c r="G248">
+        <v>4.4376999999999897E-3</v>
+      </c>
+      <c r="H248">
+        <v>8.8304374999999995E-4</v>
+      </c>
+      <c r="I248" s="2">
+        <v>6.4799999999999998E-8</v>
+      </c>
+      <c r="J248">
+        <v>5.3225900000000003E-3</v>
+      </c>
+      <c r="K248">
+        <v>2.3623799999999899E-3</v>
+      </c>
+      <c r="L248" s="3">
+        <v>0.30740263137006302</v>
+      </c>
+    </row>
+    <row r="249" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B249" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C249">
+        <v>4.6281599999999897E-3</v>
+      </c>
+      <c r="D249">
+        <v>1.7988010999999901E-3</v>
+      </c>
+      <c r="E249" s="2">
+        <v>4.2400000000000002E-8</v>
+      </c>
+      <c r="F249">
+        <v>6.4256599999999902E-3</v>
+      </c>
+      <c r="G249">
+        <v>3.4394391999999999E-3</v>
+      </c>
+      <c r="H249">
+        <v>7.5553459000000001E-4</v>
+      </c>
+      <c r="I249" s="2">
+        <v>3.9400000000000002E-8</v>
+      </c>
+      <c r="J249">
+        <v>4.2091717999999997E-3</v>
+      </c>
+      <c r="K249">
+        <v>2.2164881999999901E-3</v>
+      </c>
+      <c r="L249" s="3">
+        <v>0.34494327430956501</v>
+      </c>
+    </row>
+    <row r="250" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B250" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C250">
+        <v>1.17472499999999E-3</v>
+      </c>
+      <c r="D250">
+        <v>5.9627244999999897E-4</v>
+      </c>
+      <c r="E250" s="2">
+        <v>2.9999999999999997E-8</v>
+      </c>
+      <c r="F250">
+        <v>1.7744519999999999E-3</v>
+      </c>
+      <c r="G250">
+        <v>9.0013899999999902E-4</v>
+      </c>
+      <c r="H250">
+        <v>2.01560389999999E-4</v>
+      </c>
+      <c r="I250" s="2">
+        <v>2.8600000000000001E-8</v>
+      </c>
+      <c r="J250">
+        <v>1.099685E-3</v>
+      </c>
+      <c r="K250">
+        <v>6.7476700000000005E-4</v>
+      </c>
+      <c r="L250" s="3">
+        <v>0.38026782353087002</v>
+      </c>
+    </row>
+    <row r="251" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B251" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C251">
+        <v>5.6950380000000002E-2</v>
+      </c>
+      <c r="D251">
+        <v>2.7298995E-2</v>
+      </c>
+      <c r="E251" s="2">
+        <v>4.51E-7</v>
+      </c>
+      <c r="F251">
+        <v>8.4253079999999897E-2</v>
+      </c>
+      <c r="G251">
+        <v>4.3184640000000003E-2</v>
+      </c>
+      <c r="H251">
+        <v>1.28698030999999E-2</v>
+      </c>
+      <c r="I251" s="2">
+        <v>4.4400000000000001E-7</v>
+      </c>
+      <c r="J251">
+        <v>5.6124169999999897E-2</v>
+      </c>
+      <c r="K251">
+        <v>2.8128909999999899E-2</v>
+      </c>
+      <c r="L251" s="3">
+        <v>0.33386209738563799</v>
+      </c>
+    </row>
+    <row r="252" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B252" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C252">
+        <v>6.8478499999999999E-3</v>
+      </c>
+      <c r="D252">
+        <v>9.8902899999999891E-4</v>
+      </c>
+      <c r="E252" s="2">
+        <v>1.7599999999999999E-8</v>
+      </c>
+      <c r="F252">
+        <v>7.8429799999999994E-3</v>
+      </c>
+      <c r="G252">
+        <v>4.7108799999323603E-3</v>
+      </c>
+      <c r="H252">
+        <v>6.7777899998977802E-4</v>
+      </c>
+      <c r="I252" s="2">
+        <v>1.4E-8</v>
+      </c>
+      <c r="J252">
+        <v>5.3910499999999901E-3</v>
+      </c>
+      <c r="K252">
+        <v>2.4519300000000002E-3</v>
+      </c>
+      <c r="L252" s="3">
+        <v>0.31262734317822999</v>
+      </c>
+    </row>
+    <row r="253" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B253" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C253">
+        <v>2.737475E-2</v>
+      </c>
+      <c r="D253">
+        <v>4.0064004999999896E-3</v>
+      </c>
+      <c r="E253" s="2">
+        <v>7.0000000000000005E-8</v>
+      </c>
+      <c r="F253">
+        <v>3.1406629999999901E-2</v>
+      </c>
+      <c r="G253">
+        <v>1.8456479999864599E-2</v>
+      </c>
+      <c r="H253">
+        <v>2.76381389997889E-3</v>
+      </c>
+      <c r="I253" s="2">
+        <v>5.3099999999999999E-8</v>
+      </c>
+      <c r="J253">
+        <v>2.1234929999999999E-2</v>
+      </c>
+      <c r="K253">
+        <v>1.01716999999999E-2</v>
+      </c>
+      <c r="L253" s="3">
         <v>0.323871106196366</v>
       </c>
     </row>
